--- a/Final Project/result_data.xlsx
+++ b/Final Project/result_data.xlsx
@@ -515,31 +515,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.04105042481452233</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
-        <v>9.958949575185478</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E3">
-        <v>0.6841737469087055</v>
+        <v>0.68</v>
       </c>
       <c r="F3">
-        <v>7.13881417244107</v>
+        <v>7.14</v>
       </c>
       <c r="G3">
-        <v>6.841737469087055</v>
+        <v>6.84</v>
       </c>
       <c r="H3">
-        <v>793.2015747156745</v>
+        <v>793.2</v>
       </c>
       <c r="I3">
-        <v>6.495690850346887</v>
+        <v>6.5</v>
       </c>
       <c r="J3">
-        <v>-6.410710534292819</v>
+        <v>-6.41</v>
       </c>
       <c r="K3">
-        <v>9.915019683945932</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,31 +550,31 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>0.3874730761425909</v>
+        <v>0.39</v>
       </c>
       <c r="D4">
-        <v>9.612526923857409</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E4">
-        <v>6.457884602376516</v>
+        <v>6.46</v>
       </c>
       <c r="F4">
-        <v>6.725269606379879</v>
+        <v>6.73</v>
       </c>
       <c r="G4">
-        <v>64.57884602376515</v>
+        <v>64.58</v>
       </c>
       <c r="H4">
-        <v>747.2521784866533</v>
+        <v>747.25</v>
       </c>
       <c r="I4">
-        <v>0.6548580801459538</v>
+        <v>0.65</v>
       </c>
       <c r="J4">
-        <v>0.004489688770879852</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.340652231083167</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,31 +585,31 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>1.240357140560933</v>
+        <v>1.24</v>
       </c>
       <c r="D5">
-        <v>8.759642859439067</v>
+        <v>8.76</v>
       </c>
       <c r="E5">
-        <v>20.67261900934888</v>
+        <v>20.67</v>
       </c>
       <c r="F5">
-        <v>20.40522800932512</v>
+        <v>20.41</v>
       </c>
       <c r="G5">
-        <v>206.7261900934888</v>
+        <v>206.73</v>
       </c>
       <c r="H5">
-        <v>1085.384468581124</v>
+        <v>1085.38</v>
       </c>
       <c r="I5">
-        <v>0.9729661405371743</v>
+        <v>0.97</v>
       </c>
       <c r="J5">
-        <v>4.685495985138328</v>
+        <v>4.69</v>
       </c>
       <c r="K5">
-        <v>4.341537874324494</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,31 +620,31 @@
         <v>200</v>
       </c>
       <c r="C6">
-        <v>1.736665546259816</v>
+        <v>1.74</v>
       </c>
       <c r="D6">
-        <v>8.263334453740184</v>
+        <v>8.26</v>
       </c>
       <c r="E6">
-        <v>28.94442577099693</v>
+        <v>28.94</v>
       </c>
       <c r="F6">
-        <v>27.90536498236226</v>
+        <v>27.91</v>
       </c>
       <c r="G6">
-        <v>289.4442577099693</v>
+        <v>289.44</v>
       </c>
       <c r="H6">
-        <v>1484.327924593737</v>
+        <v>1484.33</v>
       </c>
       <c r="I6">
-        <v>0.6976047576251467</v>
+        <v>0.7</v>
       </c>
       <c r="J6">
-        <v>3.365083543999904</v>
+        <v>3.37</v>
       </c>
       <c r="K6">
-        <v>5.937311698374949</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,31 +655,31 @@
         <v>400</v>
       </c>
       <c r="C7">
-        <v>2.348760196960646</v>
+        <v>2.35</v>
       </c>
       <c r="D7">
-        <v>7.651239803039354</v>
+        <v>7.65</v>
       </c>
       <c r="E7">
-        <v>39.14600328267743</v>
+        <v>39.15</v>
       </c>
       <c r="F7">
-        <v>37.15685330165986</v>
+        <v>37.16</v>
       </c>
       <c r="G7">
-        <v>391.4600328267742</v>
+        <v>391.46</v>
       </c>
       <c r="H7">
-        <v>1976.428367109567</v>
+        <v>1976.43</v>
       </c>
       <c r="I7">
-        <v>0.3596102159430785</v>
+        <v>0.36</v>
       </c>
       <c r="J7">
-        <v>1.734676315618654</v>
+        <v>1.73</v>
       </c>
       <c r="K7">
-        <v>7.905713468438267</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,31 +690,31 @@
         <v>600</v>
       </c>
       <c r="C8">
-        <v>2.66429057250384</v>
+        <v>2.66</v>
       </c>
       <c r="D8">
-        <v>7.335709427496161</v>
+        <v>7.34</v>
       </c>
       <c r="E8">
-        <v>44.40484287506399</v>
+        <v>44.4</v>
       </c>
       <c r="F8">
-        <v>41.92592872745974</v>
+        <v>41.93</v>
       </c>
       <c r="G8">
-        <v>444.0484287506399</v>
+        <v>444.05</v>
       </c>
       <c r="H8">
-        <v>2230.102591886156</v>
+        <v>2230.1</v>
       </c>
       <c r="I8">
-        <v>0.1853764248995873</v>
+        <v>0.19</v>
       </c>
       <c r="J8">
-        <v>0.8942132075557865</v>
+        <v>0.89</v>
       </c>
       <c r="K8">
-        <v>8.920410367544626</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,66 +725,63 @@
         <v>1000</v>
       </c>
       <c r="C9">
-        <v>2.910791031796979</v>
+        <v>2.91</v>
       </c>
       <c r="D9">
-        <v>7.089208968203021</v>
+        <v>7.09</v>
       </c>
       <c r="E9">
-        <v>48.51318386328299</v>
+        <v>48.51</v>
       </c>
       <c r="F9">
-        <v>45.65165343682397</v>
+        <v>45.65</v>
       </c>
       <c r="G9">
-        <v>485.1318386328298</v>
+        <v>485.13</v>
       </c>
       <c r="H9">
-        <v>2428.279438128935</v>
+        <v>2428.28</v>
       </c>
       <c r="I9">
-        <v>0.04926060533795606</v>
+        <v>0.05</v>
       </c>
       <c r="J9">
-        <v>0.2376216421463049</v>
+        <v>0.24</v>
       </c>
       <c r="K9">
-        <v>9.713117752515739</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>10000</v>
-      </c>
       <c r="C10">
-        <v>3.000000000836062</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>6.999999999163938</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>50.00000001393437</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>47.00000001263665</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>500.0000001393437</v>
+        <v>500</v>
       </c>
       <c r="H10">
-        <v>2500.000000672163</v>
+        <v>2500</v>
       </c>
       <c r="I10">
-        <v>-4.616538262780523E-10</v>
+        <v>-0</v>
       </c>
       <c r="J10">
-        <v>-2.226997253274021E-09</v>
+        <v>-0</v>
       </c>
       <c r="K10">
-        <v>10.00000000268865</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
